--- a/bd_imoveis.xlsx
+++ b/bd_imoveis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t xml:space="preserve">cod</t>
   </si>
@@ -193,6 +193,12 @@
   <si>
     <t xml:space="preserve">José Carlos Guerra</t>
   </si>
+  <si>
+    <t xml:space="preserve">Canto do Forte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xixová 217 ap 56</t>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +242,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -300,17 +313,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -321,12 +334,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -527,310 +548,310 @@
   </sheetPr>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="55.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="55.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>650000</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="1" t="n">
         <v>588</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2" t="n">
+      <c r="F2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="2" t="n">
+      <c r="N2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>110000</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="113.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="1" t="n">
         <v>601852</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2" t="n">
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O3" s="4" t="n">
         <v>90278</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="124.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>596625</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2" t="n">
+      <c r="G4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>89898</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="1" t="n">
         <v>562807</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2" t="n">
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="2" t="n">
+      <c r="N5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="1" t="n">
         <v>69101</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="72.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="1" t="n">
         <v>450000</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2" t="n">
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="2" t="n">
+      <c r="N6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="6" t="s">
@@ -838,49 +859,49 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="83.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="1" t="n">
         <v>450000</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="1" t="n">
         <v>331</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2" t="n">
+      <c r="G7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="2" t="n">
+      <c r="N7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="1" t="n">
         <v>110000</v>
       </c>
       <c r="P7" s="4" t="s">
@@ -888,49 +909,49 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="113.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="1" t="n">
         <v>950000</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2" t="n">
+      <c r="H8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="2" t="n">
+      <c r="N8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="1" t="n">
         <v>110000</v>
       </c>
       <c r="P8" s="4" t="s">
@@ -938,202 +959,202 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="113.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="1" t="n">
         <v>350000</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2" t="n">
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="2" t="n">
+      <c r="N9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="1" t="n">
         <v>70000</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>650000</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>588</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="B10" s="1" t="n">
+        <v>540000</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>608</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="2" t="n">
+      <c r="N10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="1" t="n">
         <v>110000</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>21</v>
+      <c r="P10" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="1" t="n">
         <v>650000</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="1" t="n">
         <v>588</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" s="2" t="n">
+      <c r="F11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" s="2" t="n">
+      <c r="N11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="1" t="n">
         <v>110000</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="1" t="n">
         <v>650000</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="1" t="n">
         <v>588</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="2" t="n">
+      <c r="F12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="2" t="n">
+      <c r="N12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="1" t="n">
         <v>110000</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/bd_imoveis.xlsx
+++ b/bd_imoveis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
   <si>
     <t xml:space="preserve">cod</t>
   </si>
@@ -195,6 +195,21 @@
   </si>
   <si>
     <t xml:space="preserve">Canto do Forte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Localizado em um dos bairros mais desejados de Praia Grande, este apartamento combina conforto, praticidade e excelente localização.
+2 dormitórios (1 suíte)
+Sala ampla para 2 ambientes
+Cozinha com armário planejado
+Banheiro social com box
+Área de serviço funcional
+1 vaga de garagem
+77 m² de área útil
+Lazer completo no condomínio
+Diferenciais:
+Imóvel totalmente reformado, pronto para morar e impecável.
+💰 Valor: R$ 540.000,00
+Aproveite esta oportunidade de morar a poucos passos da praia. Entre em contato e agende sua visita!</t>
   </si>
   <si>
     <t xml:space="preserve">Xixová 217 ap 56</t>
@@ -548,8 +563,8 @@
   </sheetPr>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1008,7 +1023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="155.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -1045,8 +1060,8 @@
       <c r="L10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>20</v>
+      <c r="M10" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>17</v>
@@ -1055,7 +1070,7 @@
         <v>110000</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/bd_imoveis.xlsx
+++ b/bd_imoveis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t xml:space="preserve">cod</t>
   </si>
@@ -214,6 +214,24 @@
   <si>
     <t xml:space="preserve">Xixová 217 ap 56</t>
   </si>
+  <si>
+    <t xml:space="preserve">Apartamento na Guilhermina – Praia Grande
+Excelente oportunidade! Apartamento ideal para quem busca conforto e praticidade, em uma localização privilegiada na Praia Grande.
+2 dormitórios
+1 vaga de garagem
+Área útil: 61m²
+IPTU: R$ 270,00
+Condomínio: R$ 550,00
+Diferenciais:
+Aceita permuta e veículo como parte do pagamento
+Financiamento bancário disponível
+O imóvel será entregue mobiliado e pintado
+💰 Valor: R$ 385.000,00
+Não perca esta chance de morar em um bairro completo e a poucos minutos da praia. Entre em contato e agende sua visita!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquarius</t>
+  </si>
 </sst>
 </file>
 
@@ -222,7 +240,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,18 +283,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -328,7 +334,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -355,14 +361,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -563,8 +561,8 @@
   </sheetPr>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1023,7 +1021,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="155.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="154.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -1036,10 +1034,10 @@
       <c r="D10" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="4" t="n">
         <v>608</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="1" t="n">
@@ -1073,54 +1071,54 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="160.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>650000</v>
+        <v>385000</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>588</v>
+        <v>270</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>20</v>
+      <c r="M11" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O11" s="1" t="n">
         <v>110000</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,7 +1158,7 @@
       <c r="L12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N12" s="1" t="s">

--- a/bd_imoveis.xlsx
+++ b/bd_imoveis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
   <si>
     <t xml:space="preserve">cod</t>
   </si>
@@ -232,6 +232,29 @@
   <si>
     <t xml:space="preserve">Aquarius</t>
   </si>
+  <si>
+    <t xml:space="preserve">Tupi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartamento com Lazer Completo – Praia Grande
+Ótima oportunidade para morar ou investir! Localizado em um condomínio com infraestrutura completa, este apartamento oferece conforto e segurança:
+2 dormitórios (sendo 1 suíte)
+1 vaga de garagem
+Área útil: 78m²
+Infraestrutura e Lazer:
+Piscina na cobertura
+Salão de festas
+Salão de jogos
+Portaria 24 horas
+Detalhes financeiros:
+Condomínio: R$ 750,00
+IPTU: R$ 330,00
+Valor: R$ 405.000,00 (à vista ou financiamento bancário)
+Agende sua visita e aproveite essa oportunidade de morar bem em Praia Grande!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulo Henrique</t>
+  </si>
 </sst>
 </file>
 
@@ -240,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +306,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -363,8 +392,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -561,8 +590,8 @@
   </sheetPr>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K11" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1071,7 +1100,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="160.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="154.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
@@ -1121,33 +1150,33 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="192.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>650000</v>
+        <v>405000</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>588</v>
+        <v>330</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>2</v>
+        <v>750</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>17</v>
@@ -1158,17 +1187,17 @@
       <c r="L12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="7" t="s">
-        <v>20</v>
+      <c r="M12" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O12" s="1" t="n">
         <v>110000</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/bd_imoveis.xlsx
+++ b/bd_imoveis.xlsx
@@ -591,7 +591,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K11" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
+      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/bd_imoveis.xlsx
+++ b/bd_imoveis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
   <si>
     <t xml:space="preserve">cod</t>
   </si>
@@ -255,6 +255,24 @@
   <si>
     <t xml:space="preserve">Paulo Henrique</t>
   </si>
+  <si>
+    <t xml:space="preserve">3 (1 Suíte)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (1 Suíte)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (1 Suíte)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/2028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (1 Suíte)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/2029</t>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,12 +324,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -363,7 +375,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -390,10 +402,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -588,10 +596,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K11" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1150,7 +1158,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="192.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="185.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
@@ -1166,7 +1174,7 @@
       <c r="E12" s="1" t="n">
         <v>750</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="1" t="n">
@@ -1200,6 +1208,257 @@
         <v>51</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>405000</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>110000</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>405001</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>110001</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>405002</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>110002</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>405003</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>110003</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>405004</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>110004</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/bd_imoveis.xlsx
+++ b/bd_imoveis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="59">
   <si>
     <t xml:space="preserve">cod</t>
   </si>
@@ -254,6 +254,20 @@
   </si>
   <si>
     <t xml:space="preserve">Paulo Henrique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🏡 Apartamento à venda – Vila Guilhermina, Praia Grande, SP
+* 3 dormitórios (sendo 1 suíte)
+* 2 vagas de garagem
+* 122 m² de área útil
+Localizado em um condomínio com lazer completo 🏖️🏊‍♂️
+✨ Diferenciais:
+* Aceita permuta
+* Financiamento bancário
+💰 Valores:
+&gt; Preço: R$ 950.000
+&gt; Condomínio: R$ 960
+&gt; IPTU: R$ 652</t>
   </si>
   <si>
     <t xml:space="preserve">3 (1 Suíte)</t>
@@ -375,7 +389,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -401,6 +415,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -598,8 +616,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1208,47 +1226,47 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="171.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>405000</v>
+        <v>950000</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>330</v>
+        <v>652</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>750</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>26</v>
+        <v>950</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="O13" s="1" t="n">
@@ -1275,7 +1293,7 @@
         <v>751</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>3</v>
@@ -1325,7 +1343,7 @@
         <v>752</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>4</v>
@@ -1375,7 +1393,7 @@
         <v>753</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5</v>
@@ -1393,7 +1411,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>20</v>
@@ -1425,7 +1443,7 @@
         <v>754</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>6</v>
@@ -1443,7 +1461,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>20</v>
